--- a/MOBILE APP AND API TEST CASES.xlsx
+++ b/MOBILE APP AND API TEST CASES.xlsx
@@ -5,22 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bukunmi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bukunmi\Desktop\QA API AND MOBILE APP ASSESSMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72731C62-EE4E-4A24-88A3-EFC892668A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8837D-2045-448D-B49E-B67EC2BAD568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35320" yWindow="7680" windowWidth="18720" windowHeight="11930" tabRatio="584" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER " sheetId="3" r:id="rId1"/>
-    <sheet name="API" sheetId="2" r:id="rId2"/>
-    <sheet name="Mobile App" sheetId="6" r:id="rId3"/>
+    <sheet name="Mobile App" sheetId="6" r:id="rId2"/>
+    <sheet name="API" sheetId="2" r:id="rId3"/>
     <sheet name="SUMMARY REPORT " sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Hlk56008913" localSheetId="3">'SUMMARY REPORT '!#REF!</definedName>
   </definedNames>
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="252">
   <si>
     <t>Bukunmi Odunlami</t>
   </si>
@@ -233,53 +230,7 @@
     <t xml:space="preserve">Usability </t>
   </si>
   <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>PIN Reset</t>
-  </si>
-  <si>
-    <t>Invalid PIN Format</t>
-  </si>
-  <si>
-    <t>This is to verify that user cannot use alphabet or any other invalid characted as PIN</t>
-  </si>
-  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Account is USSD eligible</t>
-  </si>
-  <si>
-    <t>1. Dial *901*905*0#
-2. Enter account number: 122****12
-3. Enter the last 4 digit of the second card PAN
-4. Create PIN: eeee</t>
-  </si>
-  <si>
-    <t>User should be unable to use an invalid format as PIN</t>
-  </si>
-  <si>
-    <t>User was unable to create new PIN using alphabet or other invalid format and the system prompts the user to create PIN again</t>
-  </si>
-  <si>
-    <t>Account must not be carded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Dial *901*905*0#
-2. Enter account number: 005***72
-3. Enter D.O.B
-4. Create New PIN
-</t>
-  </si>
-  <si>
-    <t>This is to verify that a user can succesfully reset PIN using D.O.B</t>
-  </si>
-  <si>
-    <t>User should be able to reset PIN successfully using D.O.B</t>
-  </si>
-  <si>
-    <t>User was able to reset successfully using D.O.B</t>
   </si>
   <si>
     <t>SUMMARY CHART</t>
@@ -763,9 +714,6 @@
 Confirm new password</t>
   </si>
   <si>
-    <t>MOBILE_APP_17</t>
-  </si>
-  <si>
     <t>LOG OUT</t>
   </si>
   <si>
@@ -817,8 +765,142 @@
     <t>QA API AND MOBILE APP ASSESSMENT</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Mobile APP</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>All requests</t>
+  </si>
+  <si>
+    <t>429 Too many request occur with the endpoint sometimes</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>User can enter a password with less than 8 characters and change password successfully</t>
+  </si>
+  <si>
+    <t>Duplicate Email Sign Up</t>
+  </si>
+  <si>
+    <t>This is to validate that duplicate email cannot be used for affiliate sign up</t>
+  </si>
+  <si>
+    <t>User has already signed up with the email</t>
+  </si>
+  <si>
+    <t>Perform sign up again</t>
+  </si>
+  <si>
+    <t>Automation Test step</t>
+  </si>
+  <si>
+    <t>Install application in Eclipse
+Configure Android studio emulator
+Set desired capabilities using Java in the Eclipse IDE
+Execute Code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to login
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to attempt invalid login
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to do onboarding
+Add assertions
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to do sign up without filling required fields
+Add assertions
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to do onboarding
+Add assertions to flag duplicate email
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to onboarding
+Add assertions to flag password mismatch
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to sign up as Wema staff
+Add assertions
+Execute code</t>
+  </si>
+  <si>
+    <t>Create a Java Class
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to update info
+Add assertions
+Execute code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to change password
+Add assertions
+Execute code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Create a TestNG test 
+Grab mobile element selectors using Android inspector
+Write automation code to attempt invalid login
+Execute code</t>
+  </si>
+  <si>
+    <t>Reattempt previous test with invalid password format text</t>
+  </si>
+  <si>
+    <t>Add a code to click Logout from change password module after logging in</t>
+  </si>
+  <si>
+    <t>Duplicate Email for Sign Up</t>
+  </si>
+  <si>
+    <t>User can sign up multiple times with same email</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">The result of the QA API AND MOBILE APP ASSESSMENT on USSD test are as follows: 24– planned test,23 – executed, 01 – test case not tested, 21– passed, </t>
+      <t xml:space="preserve">The result of the QA API AND MOBILE APP ASSESSMENT on USSD test are as follows: 23– planned test,22– executed, 01 – test case not tested, 20– passed, </t>
     </r>
     <r>
       <rPr>
@@ -827,7 +909,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>02</t>
+      <t>03</t>
     </r>
     <r>
       <rPr>
@@ -874,30 +956,6 @@
       </rPr>
       <t xml:space="preserve"> – usability defect raised. </t>
     </r>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Mobile APP</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>All requests</t>
-  </si>
-  <si>
-    <t>429 Too many request occur with the endpoint sometimes</t>
-  </si>
-  <si>
-    <t>Password Reset</t>
-  </si>
-  <si>
-    <t>User can enter a password with less than 8 characters and change password successfully</t>
   </si>
 </sst>
 </file>
@@ -1799,228 +1857,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2034,15 +1891,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2052,6 +1900,216 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2396,6 +2454,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2D5D-49A2-AAF0-8C82CC920250}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3171,6 +3234,355 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B3516A-E153-4EEF-BA6A-6AC0FB1B94C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4075C0FC-1DE5-4A14-9E00-0A681CE0551C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50BC3F2-1236-46B1-9D10-333738E832A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4AAB02-93DE-4AFA-A054-51A62B4A1EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7C79A8-73D6-45D7-9910-11D29DD25D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B295AE2D-3C2A-47DC-9CAB-C047541BD970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77CC27A-8AF7-484C-92BD-4257BD288A90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E764844E-6D2A-4963-8735-EE3F0CAD3068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="37496750" y="55626000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3514,355 +3926,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B3516A-E153-4EEF-BA6A-6AC0FB1B94C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4075C0FC-1DE5-4A14-9E00-0A681CE0551C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50BC3F2-1236-46B1-9D10-333738E832A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4AAB02-93DE-4AFA-A054-51A62B4A1EB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7C79A8-73D6-45D7-9910-11D29DD25D79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B295AE2D-3C2A-47DC-9CAB-C047541BD970}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77CC27A-8AF7-484C-92BD-4257BD288A90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E764844E-6D2A-4963-8735-EE3F0CAD3068}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37496750" y="55626000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3904,36 +3967,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Pass</v>
-          </cell>
-          <cell r="B1">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Fail</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4201,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -4296,12 +4329,12 @@
       <c r="E4" s="10"/>
       <c r="F4" s="15"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="10"/>
       <c r="O4" s="16"/>
       <c r="P4" s="10"/>
@@ -4345,11 +4378,11 @@
       <c r="H6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
+      <c r="I6" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="17" t="s">
         <v>14</v>
       </c>
@@ -4376,11 +4409,11 @@
       <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="123"/>
+      <c r="I7" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="18" t="s">
         <v>16</v>
       </c>
@@ -4410,7 +4443,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="108" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="17" t="s">
@@ -4438,10 +4471,10 @@
       <c r="H9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="125"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="109"/>
       <c r="M9" s="17" t="s">
         <v>22</v>
       </c>
@@ -4485,14 +4518,14 @@
       <c r="E11" s="10"/>
       <c r="F11" s="15"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="119"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="10"/>
       <c r="O11" s="16"/>
       <c r="P11" s="10"/>
@@ -4510,14 +4543,14 @@
       <c r="E12" s="10"/>
       <c r="F12" s="15"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="H12" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="114"/>
       <c r="N12" s="10"/>
       <c r="O12" s="16"/>
       <c r="P12" s="10"/>
@@ -4535,12 +4568,12 @@
       <c r="E13" s="10"/>
       <c r="F13" s="15"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
       <c r="N13" s="10"/>
       <c r="O13" s="16"/>
       <c r="P13" s="10"/>
@@ -4558,12 +4591,12 @@
       <c r="E14" s="10"/>
       <c r="F14" s="15"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="10"/>
       <c r="O14" s="16"/>
       <c r="P14" s="10"/>
@@ -4581,14 +4614,14 @@
       <c r="E15" s="10"/>
       <c r="F15" s="15"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="99"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="123"/>
       <c r="N15" s="10"/>
       <c r="O15" s="16"/>
       <c r="P15" s="10"/>
@@ -4606,14 +4639,14 @@
       <c r="E16" s="10"/>
       <c r="F16" s="15"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="10"/>
       <c r="O16" s="16"/>
       <c r="P16" s="10"/>
@@ -4631,14 +4664,14 @@
       <c r="E17" s="10"/>
       <c r="F17" s="15"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="10"/>
       <c r="O17" s="16"/>
       <c r="P17" s="10"/>
@@ -4656,14 +4689,14 @@
       <c r="E18" s="10"/>
       <c r="F18" s="15"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
+      <c r="H18" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="10"/>
       <c r="O18" s="16"/>
       <c r="P18" s="10"/>
@@ -4681,12 +4714,12 @@
       <c r="E19" s="10"/>
       <c r="F19" s="15"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="108"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="10"/>
       <c r="O19" s="16"/>
       <c r="P19" s="10"/>
@@ -4704,12 +4737,12 @@
       <c r="E20" s="10"/>
       <c r="F20" s="15"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135"/>
       <c r="N20" s="10"/>
       <c r="O20" s="16"/>
       <c r="P20" s="10"/>
@@ -4754,17 +4787,17 @@
       <c r="E22" s="10"/>
       <c r="F22" s="15"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="100" t="s">
+      <c r="H22" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="102"/>
+      <c r="I22" s="126"/>
       <c r="J22" s="40"/>
       <c r="K22" s="23"/>
       <c r="L22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M22" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="16"/>
@@ -4783,17 +4816,17 @@
       <c r="E23" s="10"/>
       <c r="F23" s="15"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="103" t="s">
+      <c r="H23" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="105"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="40"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24" t="s">
         <v>32</v>
       </c>
       <c r="M23" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="16"/>
@@ -4812,10 +4845,10 @@
       <c r="E24" s="10"/>
       <c r="F24" s="15"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="112" t="s">
+      <c r="H24" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="113"/>
+      <c r="I24" s="137"/>
       <c r="J24" s="40"/>
       <c r="K24" s="23"/>
       <c r="L24" s="17" t="s">
@@ -4896,14 +4929,14 @@
       <c r="E27" s="10"/>
       <c r="F27" s="15"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
       <c r="N27" s="10"/>
       <c r="O27" s="16"/>
       <c r="P27" s="10"/>
@@ -4930,10 +4963,10 @@
       <c r="J28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="87"/>
+      <c r="L28" s="111"/>
       <c r="M28" s="28" t="s">
         <v>42</v>
       </c>
@@ -4963,10 +4996,10 @@
       <c r="J29" s="29">
         <v>45469</v>
       </c>
-      <c r="K29" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="84"/>
+      <c r="K29" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="142"/>
       <c r="M29" s="22">
         <v>1</v>
       </c>
@@ -4990,8 +5023,8 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="85"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="143"/>
       <c r="M30" s="22"/>
       <c r="N30" s="10"/>
       <c r="O30" s="16"/>
@@ -5013,8 +5046,8 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="85"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="143"/>
       <c r="M31" s="22"/>
       <c r="N31" s="10"/>
       <c r="O31" s="16"/>
@@ -5036,8 +5069,8 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="31"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="85"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="143"/>
       <c r="M32" s="22"/>
       <c r="N32" s="10"/>
       <c r="O32" s="16"/>
@@ -5059,8 +5092,8 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="85"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="143"/>
       <c r="M33" s="22"/>
       <c r="N33" s="10"/>
       <c r="O33" s="16"/>
@@ -5257,12 +5290,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="H12:M14"/>
     <mergeCell ref="H15:M15"/>
@@ -5275,11 +5307,12 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H27:M27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K29" r:id="rId1" xr:uid="{D89711CB-A90D-457C-BB0B-70C57034A5F8}"/>
@@ -5291,10 +5324,1754 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A441DF-E7DC-4E8A-BF18-06768940D6B2}">
+  <dimension ref="A1:S77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="46.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="85.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68" style="88" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="71.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="24.1796875" style="49" customWidth="1"/>
+    <col min="13" max="13" width="42.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="1"/>
+    <col min="15" max="15" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" ht="262.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="153"/>
+      <c r="C3" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="170" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="153"/>
+      <c r="C4" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="153"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="170" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="153"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="170" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="170" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="153"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="170" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="153"/>
+      <c r="C10" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="170" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="170" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="169"/>
+      <c r="C12" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="170" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="148"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="170" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" s="38" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="148"/>
+      <c r="C15" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="170" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" s="38" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="148"/>
+      <c r="C16" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="K16" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="1:19" s="82" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="81"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="87"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="49"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="87"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="49"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="49"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="49"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="49"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="49"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="49"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="49"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="49"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="49"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="49"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="49"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="49"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="49"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="49"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="49"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="49"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="49"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="49"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="49"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="49"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="49"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="49"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="49"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="49"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="49"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="49"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="49"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="49"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="49"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="49"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="49"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="49"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="49"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="49"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="49"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="49"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="49"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="49"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="49"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="49"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="49"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="49"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="49"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="49"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="49"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="49"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="49"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="49"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="49"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="49"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="49"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="49"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="49"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="49"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="49"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="49"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -5364,31 +7141,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="138" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J2" s="71" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>12</v>
@@ -5397,7 +7174,7 @@
         <v>46</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="262.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5405,29 +7182,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="139"/>
+        <v>76</v>
+      </c>
+      <c r="C3" s="145"/>
       <c r="D3" s="66" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F3" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="71" t="s">
-        <v>95</v>
-      </c>
       <c r="H3" s="72" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K3" s="68" t="s">
         <v>12</v>
@@ -5442,31 +7219,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K4" s="43" t="s">
         <v>12</v>
@@ -5481,29 +7258,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="140"/>
+        <v>95</v>
+      </c>
+      <c r="C5" s="146"/>
       <c r="D5" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>12</v>
@@ -5518,31 +7295,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>12</v>
@@ -5556,35 +7333,35 @@
       <c r="A7" s="47">
         <v>6</v>
       </c>
-      <c r="B7" s="157" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="139"/>
+      <c r="B7" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="145"/>
       <c r="D7" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="159" t="s">
-        <v>118</v>
+      <c r="G7" s="92" t="s">
+        <v>105</v>
       </c>
       <c r="H7" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="159" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="148" t="s">
+      <c r="L7" s="83" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="80"/>
@@ -5594,33 +7371,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="K8" s="155" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="89" t="s">
         <v>57</v>
       </c>
       <c r="L8" s="44" t="s">
@@ -5719,1684 +7496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A441DF-E7DC-4E8A-BF18-06768940D6B2}">
-  <dimension ref="A1:R78"/>
-  <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="46.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="85.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68" style="153" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1796875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" style="49" customWidth="1"/>
-    <col min="12" max="12" width="42.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="1"/>
-    <col min="14" max="14" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" ht="262.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="141" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="151" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="151" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="141" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" s="38" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" s="38" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" s="38" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="J15" s="155" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" s="38" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="1:18" s="38" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="157" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="80"/>
-    </row>
-    <row r="18" spans="1:18" s="82" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="158" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A19" s="81"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="152"/>
-      <c r="K19" s="81"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="152"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A21" s="49"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A22" s="49"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A23" s="49"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="49"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="49"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="49"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="49"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="49"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="49"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="49"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="49"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="49"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="49"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="49"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="49"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="49"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="49"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="49"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="49"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="49"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="49"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="49"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="49"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="49"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="49"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="49"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="49"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="49"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="49"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="49"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="49"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="49"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="49"/>
-      <c r="C56" s="153"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="49"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="49"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="49"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="49"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="49"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="49"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="49"/>
-      <c r="C63" s="153"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="49"/>
-      <c r="C64" s="153"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="49"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="49"/>
-      <c r="C66" s="153"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="49"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="49"/>
-      <c r="C68" s="153"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="49"/>
-      <c r="C69" s="153"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="49"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="49"/>
-      <c r="C71" s="153"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="49"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="49"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="49"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="49"/>
-      <c r="C75" s="153"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="49"/>
-      <c r="C76" s="153"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="49"/>
-      <c r="C77" s="153"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="49"/>
-      <c r="C78" s="153"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B7:B11"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7418,60 +7523,60 @@
       <c r="B3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="128" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="129"/>
+      <c r="C3" s="161" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="162"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="52"/>
       <c r="B4" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="127"/>
+      <c r="C4" s="163" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="164"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="52"/>
       <c r="B5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="165">
         <v>45467</v>
       </c>
-      <c r="D5" s="131"/>
+      <c r="D5" s="166"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="52"/>
       <c r="B6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="167">
         <v>45469</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="168"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="158"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="52"/>
       <c r="B8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="157">
         <v>1</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="158"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
@@ -7480,11 +7585,11 @@
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
-      <c r="B11" s="136" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
+      <c r="B11" s="159" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
     </row>
     <row r="12" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
@@ -7556,7 +7661,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -7572,48 +7677,59 @@
         <v>61</v>
       </c>
       <c r="C22" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="165" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="161" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="166" t="s">
-        <v>241</v>
+      <c r="B27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="165" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="161" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="167" t="s">
-        <v>243</v>
+      <c r="B28" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="169" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="170" t="s">
-        <v>245</v>
+      <c r="B29" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -7622,12 +7738,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="64" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7647,21 +7763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CE71D9C71F47A458D14CFBE63933376" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="668c55f44de77dba7e2714b8fac6571f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78b47e81-5bf8-4205-a16d-bd790723b10a" xmlns:ns3="8c11f250-60d1-4d37-bcd7-903742946585" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b90af197bf63464109aa5ff2eff046c7" ns2:_="" ns3:_="">
     <xsd:import namespace="78b47e81-5bf8-4205-a16d-bd790723b10a"/>
@@ -7878,32 +7979,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0439FBAD-780D-4B8B-9CB8-CC9F643AB9E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="78b47e81-5bf8-4205-a16d-bd790723b10a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c11f250-60d1-4d37-bcd7-903742946585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DF188D-2FB6-4FD6-80C6-3FBD71D43947}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD2691F6-2393-4AA2-AF19-7B5F9F62895C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7920,4 +8011,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DF188D-2FB6-4FD6-80C6-3FBD71D43947}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0439FBAD-780D-4B8B-9CB8-CC9F643AB9E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="78b47e81-5bf8-4205-a16d-bd790723b10a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c11f250-60d1-4d37-bcd7-903742946585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>